--- a/data/trans_bre/P21B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P21B_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.64713678776017</v>
+        <v>-7.37057674197141</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-23.33888926508422</v>
+        <v>-23.94627541021865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-25.45307662269518</v>
+        <v>-25.40246519890349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.492180957606159</v>
+        <v>-5.836971119476461</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.07868317079729292</v>
+        <v>-0.07569750963543347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2433305573093019</v>
+        <v>-0.245098475419488</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2753263762504806</v>
+        <v>-0.2774327555870381</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05298315291122032</v>
+        <v>-0.06781345058905866</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.508419410383592</v>
+        <v>8.587330366963997</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.124032963139374</v>
+        <v>-4.129136202748135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.5161605774282276</v>
+        <v>-0.003520451804040403</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.96851828100602</v>
+        <v>13.36406221247648</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1087014759579122</v>
+        <v>0.09629791920284163</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.03655857772472575</v>
+        <v>-0.04660149461070526</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.008534547865389146</v>
+        <v>-0.007296970264587221</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1732118520822995</v>
+        <v>0.1746938890310362</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.994531159309701</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.156161050808513</v>
+        <v>-1.156161050808491</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04663260859000197</v>
@@ -749,7 +749,7 @@
         <v>0.06220140826825338</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.01366474574432062</v>
+        <v>-0.01366474574432036</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.062934830150258</v>
+        <v>-4.691480782251016</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5172827462705881</v>
+        <v>0.8418838938195071</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.04207553564658</v>
+        <v>-9.130218042342488</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-9.65177959097246</v>
+        <v>-10.745368895073</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06326289160747761</v>
+        <v>-0.04841752764619267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005307769413009795</v>
+        <v>0.009329053072166022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1130349090292384</v>
+        <v>-0.1003503648128386</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1078013404544621</v>
+        <v>-0.119868312674841</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.77471819919351</v>
+        <v>16.56753587547518</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.23820643329151</v>
+        <v>18.61803283866441</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.6334426715866</v>
+        <v>20.42805754611319</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.816640016884723</v>
+        <v>8.892351160426582</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1954689541900704</v>
+        <v>0.2110288171004996</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2316050917039148</v>
+        <v>0.2416393906068055</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2676604897428214</v>
+        <v>0.2977074197656179</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.112290260405852</v>
+        <v>0.1126201316966587</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-4.675370400395584</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9184994378411915</v>
+        <v>0.9184994378411804</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.04741732703506864</v>
@@ -849,7 +849,7 @@
         <v>-0.04957566617338462</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.009844812970246027</v>
+        <v>0.009844812970245909</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.43875732403844</v>
+        <v>-15.53549932495271</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.26141657452937</v>
+        <v>-9.934184392475167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.93334041151732</v>
+        <v>-19.52365480113988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.751513905152484</v>
+        <v>-5.710184537167978</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1459340259079418</v>
+        <v>-0.1561568735228462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1126804119488266</v>
+        <v>-0.1010156801873801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2073312459172535</v>
+        <v>-0.2075213654140008</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06026722205990448</v>
+        <v>-0.05962463054107196</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.886510860884669</v>
+        <v>0.7458590017206055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.115126148302981</v>
+        <v>1.345961541502672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.240620961427641</v>
+        <v>5.151305528632043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.43311643445705</v>
+        <v>8.962654008715734</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.009200409529983765</v>
+        <v>0.006864596652115407</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0115974361361015</v>
+        <v>0.01376939579767035</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05661334056303855</v>
+        <v>0.05639527536361402</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1078832214992967</v>
+        <v>0.1009398008174917</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.647585073155378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.923271670382165</v>
+        <v>-1.923271670382176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.003587091174361156</v>
@@ -949,7 +949,7 @@
         <v>-0.01718399402141254</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.01997509255349707</v>
+        <v>-0.01997509255349719</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.756013252349763</v>
+        <v>-3.582088871593622</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.677350641428727</v>
+        <v>-5.565827249194838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.316827053214386</v>
+        <v>-6.432804672109901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.943918225518727</v>
+        <v>-5.847054625712364</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03827168164076246</v>
+        <v>-0.03626148833327205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04714894872007564</v>
+        <v>-0.05602748953005738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06526525227104062</v>
+        <v>-0.06577163397903954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06121274115403784</v>
+        <v>-0.05956122059938591</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.575672063984036</v>
+        <v>2.727312753166153</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9478020398286682</v>
+        <v>0.933747743685738</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.031348808484756</v>
+        <v>3.123758183599196</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.179636505742705</v>
+        <v>2.446121288283293</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02681472922279686</v>
+        <v>0.02848170683385795</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.009677208469070688</v>
+        <v>0.009279670902835312</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03255210941435094</v>
+        <v>0.03371680319247407</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02265951958964338</v>
+        <v>0.02596098576618629</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.15571590833726</v>
+        <v>1.223791089766262</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.739769668210633</v>
+        <v>-1.675394060956551</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.671084314831333</v>
+        <v>-1.892705288664937</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.479371039308081</v>
+        <v>-2.61165222826693</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01176787504338712</v>
+        <v>0.01246336579990434</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01751599760494397</v>
+        <v>-0.01689549733007695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01696510848825956</v>
+        <v>-0.01897720410829276</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02535655285765705</v>
+        <v>-0.02670729778482616</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.9151697247859</v>
+        <v>20.96682679994678</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.487751407523634</v>
+        <v>4.171396090474923</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.2878891956238</v>
+        <v>7.659418966127183</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.92187669055639</v>
+        <v>16.49172463695587</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2689992130333339</v>
+        <v>0.2675841056092007</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04666734906156313</v>
+        <v>0.0437869251890521</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07882490709003702</v>
+        <v>0.08366480848328132</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1818991667675768</v>
+        <v>0.2084793324784195</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.701401645594557</v>
+        <v>-2.628474350529996</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.700360320163244</v>
+        <v>-1.682645562134735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.4648698462172821</v>
+        <v>-0.9129537338043725</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-12.44788635481477</v>
+        <v>-12.65147093954386</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02703532356690607</v>
+        <v>-0.02634681538263689</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01702556294186566</v>
+        <v>-0.01682852689632235</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.004837328163408197</v>
+        <v>-0.00813411968814959</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1244788635481477</v>
+        <v>-0.1265147093954386</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.498321961077266</v>
+        <v>6.762783223656734</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.355224028897279</v>
+        <v>7.292638327305736</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.25752730170669</v>
+        <v>15.67903443411617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-3.822210263445055</v>
+        <v>-4.062471342836819</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08126382207254529</v>
+        <v>0.07335657619716175</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06774556895044866</v>
+        <v>0.07955125908917307</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2133525265673102</v>
+        <v>0.1921739820548403</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.03822210263445055</v>
+        <v>-0.04062471342836819</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7593085929147324</v>
+        <v>-0.6818117709196619</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.180714676598488</v>
+        <v>-2.174688705520096</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.376976718468921</v>
+        <v>-2.987408473969538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.381611577873768</v>
+        <v>-2.539280955566379</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.00797790037507507</v>
+        <v>-0.007029674422532379</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02218660536228008</v>
+        <v>-0.0221261223084981</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.03573018474759772</v>
+        <v>-0.03180958782832873</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02563689029956505</v>
+        <v>-0.02705178477679899</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.920316785941713</v>
+        <v>3.923660182614095</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.175251670262975</v>
+        <v>1.216547626678363</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.843328789199678</v>
+        <v>3.119702891435057</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.549000791474013</v>
+        <v>3.477610282290151</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04177278339647986</v>
+        <v>0.04175580180060562</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01206445490409266</v>
+        <v>0.01259664348842893</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03118950740521188</v>
+        <v>0.03444754431519152</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.03965547396108433</v>
+        <v>0.03922741445080443</v>
       </c>
     </row>
     <row r="25">
